--- a/data/trans_camb/P19C09-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.942872849824896</v>
+        <v>-4.942669338854114</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.870428783726003</v>
+        <v>-3.039767202116993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.539571237499466</v>
+        <v>-1.660187005269523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.849600811430491</v>
+        <v>-1.795200661934489</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.328613325113943</v>
+        <v>-2.272462239992732</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.637088214571571</v>
+        <v>-1.641198846771652</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.7645874605204876</v>
+        <v>-0.7698782112002882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.789784344405159</v>
+        <v>1.587910800516389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.026214069844192</v>
+        <v>2.166672079244352</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.415522497290941</v>
+        <v>1.520224359062624</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3573082994270315</v>
+        <v>0.2400041544732947</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9842044110298244</v>
+        <v>1.103216886043273</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8946378280160735</v>
+        <v>-0.9123519142908529</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5511778877224364</v>
+        <v>-0.5720977534613605</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4396989187271959</v>
+        <v>-0.4268197421121611</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4609388440774835</v>
+        <v>-0.4501924408593444</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5746968922828621</v>
+        <v>-0.5659247936462106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4038005879522208</v>
+        <v>-0.4166151125762372</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3250392693759414</v>
+        <v>-0.2916885542320717</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9591289774530972</v>
+        <v>0.8254045987097647</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9546361443205074</v>
+        <v>1.098761853566845</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6892086983183361</v>
+        <v>0.7800217310627383</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1604187349288266</v>
+        <v>0.1222465953598023</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4352733726397158</v>
+        <v>0.4380196238767447</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.333973442764031</v>
+        <v>-1.316055941196417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7095007754667345</v>
+        <v>-0.6141808935677029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.483043341892474</v>
+        <v>-1.262620969081522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6144261075174383</v>
+        <v>-0.6174964222701772</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8583101594941165</v>
+        <v>-0.8525931067308772</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.05837364547646609</v>
+        <v>-0.07314226802459499</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.568521734886676</v>
+        <v>1.502363533236715</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.460390687359729</v>
+        <v>2.666305928905918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.482288906688284</v>
+        <v>1.441302124549509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.442922689039964</v>
+        <v>2.407660549179023</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.097965748025406</v>
+        <v>1.155790103245927</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.106312877929431</v>
+        <v>2.131397859574926</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5176800861315061</v>
+        <v>-0.5200601794847339</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2832282924003721</v>
+        <v>-0.2801874558731137</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5198898276897621</v>
+        <v>-0.4849267217747535</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2571822928283225</v>
+        <v>-0.2460586903649318</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3547086591708025</v>
+        <v>-0.3447959973073722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02780019839432612</v>
+        <v>-0.04036454036869123</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.225581076295834</v>
+        <v>1.185730548564165</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.726566938895207</v>
+        <v>1.89279168424903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.034090339447355</v>
+        <v>1.024196393515428</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.814565403307726</v>
+        <v>1.739021462732474</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7729648200295517</v>
+        <v>0.7540636722757644</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.382997714614658</v>
+        <v>1.376094441409066</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.217699973912074</v>
+        <v>-1.188437506275971</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9478475919260663</v>
+        <v>-0.9679396892477589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.492927700969935</v>
+        <v>-2.636208188736505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.099627578825184</v>
+        <v>-3.876607836872718</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.382707408760349</v>
+        <v>-1.363905321530605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.980500582787351</v>
+        <v>-2.025751223180904</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.842657665138085</v>
+        <v>1.68700748869462</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.982604970362619</v>
+        <v>1.956223697113278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.203643928922891</v>
+        <v>1.048715761213727</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.6462469513882957</v>
+        <v>-0.6146313717694807</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.956244345349945</v>
+        <v>0.9277153040964886</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1717113587851256</v>
+        <v>0.2149160890905914</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5248400390957982</v>
+        <v>-0.516544086827144</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4167943058252821</v>
+        <v>-0.4150126705368636</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5178443795763811</v>
+        <v>-0.5434869725878696</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8204476340023413</v>
+        <v>-0.8269165341410221</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3902749230714547</v>
+        <v>-0.410983241966219</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5818216133768384</v>
+        <v>-0.5829992690437971</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.38735555774048</v>
+        <v>1.416297434112862</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.492874243873268</v>
+        <v>1.600770510446567</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4085700359490451</v>
+        <v>0.3785474743757182</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1736153180973258</v>
+        <v>-0.1787952730140044</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4114276609582369</v>
+        <v>0.4217754727012792</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09022712656089803</v>
+        <v>0.1086421559114023</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.037498875928058</v>
+        <v>-6.117496945263047</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.469091808426516</v>
+        <v>-4.375993137205772</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.778353175870774</v>
+        <v>-5.072119666381767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.225852752095856</v>
+        <v>-4.069530085797531</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.268291662705115</v>
+        <v>-4.33807602447013</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.102784821839457</v>
+        <v>-3.221520922095138</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2154868146381963</v>
+        <v>-0.3332177073296964</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.398334898228459</v>
+        <v>1.851535852549382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.424589261285596</v>
+        <v>1.191591635896108</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.879401596905184</v>
+        <v>2.314247311154168</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.246889615299634</v>
+        <v>-0.3164498238181257</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.115156692740597</v>
+        <v>1.001208841672533</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8799980407941018</v>
+        <v>-0.8722726318897129</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6893802399917559</v>
+        <v>-0.6854924531566741</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7469659869235378</v>
+        <v>-0.7466069541262029</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6530177428229301</v>
+        <v>-0.6684991410094865</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7344414754350661</v>
+        <v>-0.7375146242545673</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5565030370533058</v>
+        <v>-0.5685759331335866</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.127633715314495</v>
+        <v>0.01362708748055677</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.512714405949272</v>
+        <v>0.8288047435105227</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7550643408412805</v>
+        <v>0.5757428009591277</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7317729570454643</v>
+        <v>1.05930683467419</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04228884693915153</v>
+        <v>-0.05403541329101946</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3456760790709326</v>
+        <v>0.313109077348299</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.631167339855202</v>
+        <v>-1.649731783059449</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5764642364493588</v>
+        <v>-0.5551516232268058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.129316810738136</v>
+        <v>-1.211102358449063</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.31666104966634</v>
+        <v>-1.287766465502421</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.159242827396265</v>
+        <v>-1.130829182487994</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7789674567578388</v>
+        <v>-0.7335828595247481</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02425205605452523</v>
+        <v>0.07119236058640754</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.166081807689998</v>
+        <v>1.25710678610328</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6127542619319225</v>
+        <v>0.6416022143704717</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5822393594481371</v>
+        <v>0.4974160120259698</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0687399945488691</v>
+        <v>0.1078482062634602</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5666106824616115</v>
+        <v>0.5502449323454461</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.533630441405902</v>
+        <v>-0.5436563382315133</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.196421603564123</v>
+        <v>-0.1906682984367688</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3272101074658299</v>
+        <v>-0.3341950672095675</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.373627450994483</v>
+        <v>-0.3666499171443232</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3713417054397953</v>
+        <v>-0.3585186653567519</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.242969645563663</v>
+        <v>-0.2331222374175376</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01665600602870898</v>
+        <v>0.03999825032953584</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5701560683038857</v>
+        <v>0.6119579962799521</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2414067841124684</v>
+        <v>0.2610355506349405</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2261550161792578</v>
+        <v>0.1864954261796041</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02979117670458191</v>
+        <v>0.04167850093992245</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2209697354722566</v>
+        <v>0.220536892353369</v>
       </c>
     </row>
     <row r="34">
